--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3900.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3900.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3900</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jonathan Marc Bairstow</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -647,7 +712,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,7 +771,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3343</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -759,7 +823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3346</t>
+          <t>3346</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -851,7 +915,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -859,7 +922,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -911,7 +974,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -963,7 +1026,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1015,7 +1078,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1067,7 +1130,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1119,7 +1182,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1159,7 +1222,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -1167,7 +1229,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1207,7 +1269,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -1215,7 +1276,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1267,7 +1328,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1319,7 +1380,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1371,7 +1432,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1423,7 +1484,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1475,7 +1536,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1527,7 +1588,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1579,7 +1640,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1631,7 +1692,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1683,7 +1744,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1735,7 +1796,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1787,7 +1848,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1839,7 +1900,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1891,7 +1952,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1943,7 +2004,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1995,7 +2056,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2047,7 +2108,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2099,7 +2160,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2151,7 +2212,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2203,7 +2264,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2255,7 +2316,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2307,7 +2368,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2359,7 +2420,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2411,7 +2472,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2463,7 +2524,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2515,7 +2576,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2567,7 +2628,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2619,7 +2680,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2671,7 +2732,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2723,7 +2784,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2775,7 +2836,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2827,7 +2888,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2879,7 +2940,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2931,7 +2992,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2983,7 +3044,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3035,7 +3096,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3087,7 +3148,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3139,7 +3200,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3191,7 +3252,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3243,7 +3304,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3295,7 +3356,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3347,7 +3408,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3387,7 +3448,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -3395,7 +3455,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3447,7 +3507,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3499,7 +3559,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3539,7 +3599,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -3547,7 +3606,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3599,7 +3658,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3651,7 +3710,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3703,7 +3762,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3755,7 +3814,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3807,7 +3866,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3859,7 +3918,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3911,7 +3970,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3963,7 +4022,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4015,7 +4074,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4067,7 +4126,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4119,7 +4178,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4171,7 +4230,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4223,7 +4282,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4275,7 +4334,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4327,7 +4386,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4367,7 +4426,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -4375,7 +4433,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4427,7 +4485,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4479,7 +4537,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4531,7 +4589,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4583,7 +4641,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4635,7 +4693,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4687,7 +4745,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4739,7 +4797,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4791,7 +4849,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4843,7 +4901,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4895,7 +4953,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4947,7 +5005,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4999,7 +5057,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5039,7 +5097,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -5047,7 +5104,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5099,7 +5156,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5151,7 +5208,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5203,7 +5260,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5255,7 +5312,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5307,7 +5364,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5347,7 +5404,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -5355,7 +5411,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5386,6 +5442,551 @@
       <c r="J96" t="inlineStr">
         <is>
           <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.96%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.55%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.09%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.45%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.75%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11.89%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6.36%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15.45%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13.93%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3900.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3900.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F96" t="inlineStr">

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3900.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3900.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,6 +711,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -915,6 +915,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -1222,6 +1223,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -1269,6 +1271,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -3448,6 +3451,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -3599,6 +3603,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -4426,6 +4431,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -5097,6 +5103,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -5404,6 +5411,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -5442,551 +5450,6 @@
       <c r="J96" t="inlineStr">
         <is>
           <t>-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>37.96%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.22%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>30.55%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>37.09%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>37.45%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>22.75%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>11.89%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.36%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15.45%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13.93%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
